--- a/public/plantillas/Docentes_Plantilla_Carga_Datos.xlsx
+++ b/public/plantillas/Docentes_Plantilla_Carga_Datos.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="337">
   <si>
     <t>N°</t>
   </si>
@@ -722,12 +722,6 @@
 El código del Estado CIvil no corresponde a los valores posibles de ser consignados (1: Soltero (a), 2: Casado (a), 3: Viudo (a), ó 4: Divorsiado (a)). Corrija la Columna K, Fila n</t>
   </si>
   <si>
-    <t>Indicador si el Docente sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Error en la Columna SUFRE DISCAPACIDAD:
 El código de Condición de Discapacidad no corresponde a los valores posibles de ser consignados. Consigne 1 para SI o 0 para NO. Corrija la Columna L, Fila n</t>
   </si>
@@ -744,12 +738,6 @@
   <si>
     <t>Error en la Columna IDENTIDAD ÉTNICA:
 Los datos de identidad étnica se encuentran en blanco. Corrija la Columna N, Fila n</t>
-  </si>
-  <si>
-    <t>Indicador si el Docente se encuentra de Licencia. Valores:
-1: Si
-2: No
-Vacío: No</t>
   </si>
   <si>
     <t>Error en la Columna ¿SE ENCUENTRA DE LICENCIA?:
@@ -868,12 +856,6 @@
 Si ha indicado que el lugar donde obtuvo su máximo grado es internacional: Debe de ingresar la descripción del país donde el Docente obtuvo su máximo grado académico. Corrija la Columna X, Fila n</t>
   </si>
   <si>
-    <t>Indicador si el Docente cuenta con otro grado académico. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Error en la Columna ¿TIENE OTRO GRADO ACADÉMICO?:
 El código de ¿Tiene Otro grado Académico? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna Y, Fila n</t>
   </si>
@@ -921,12 +903,6 @@
   <si>
     <t>Error en la Columna PAÍS DONDE OBTUVO EL OTRO GRADO ACADÉMICO: 
 Si ha ingresado que el docente tiene otro grado académico y si ha indicado que el lugar donde lo obtuvo es internacional: Debe de ingresar la descripción del país donde el Docente obtuvo su máximo grado académico. Corrija la Columna AC, Fila n</t>
-  </si>
-  <si>
-    <t>Indicador si el Docente cuenta con título universitario. Valores:
-1: Si
-2: No
-Vacío: No</t>
   </si>
   <si>
     <t>Error en la Columna ¿TIENE TÍTULO UNIVERSITARIO?:
@@ -990,201 +966,228 @@
 El código de Régimen de Dedicación del Docente no corresponde a los valores posibles a ser consignados, Indique 1:Tiempo Completo, 2:Tiempo Parcial o 3:Dedicación Exclusiva. No puede dejar el registro en blanco. Corrija la Columna AH, Fila n</t>
   </si>
   <si>
+    <t>Error en la Columna ¿ES INVESTIGADOR?:
+El código de ¿Es Investigador? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AI, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna ¿ES DOCENTE PREGRADO?:
+El código de ¿Es Docente Pregrado? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AJ, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna ¿ES DOCENTE DE POSTGRADO?:
+El código de ¿Es Docente Postgrado? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AK, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna ¿ES DOCENTE DESTACADO?:
+El código de ¿Es Docente Destacado? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AL, Fila n</t>
+  </si>
+  <si>
+    <t>Horas Lectivas del Docente</t>
+  </si>
+  <si>
+    <t>Error en la Columna HORAS LECTIVAS:
+El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AM, Fila n</t>
+  </si>
+  <si>
+    <t>Horas No Lectivas del Docente</t>
+  </si>
+  <si>
+    <t>Error en la Columna HORAS NO LECTIVAS:
+El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AN, Fila n</t>
+  </si>
+  <si>
+    <t>Horas de Investigación del Docente</t>
+  </si>
+  <si>
+    <t>Error en la Columna HORAS DE INVESTIGACIÓN:
+El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AO, Fila n</t>
+  </si>
+  <si>
+    <t>Horas de Dedicación del Docente</t>
+  </si>
+  <si>
+    <t>Error en la Columna HORAS DE DEDICACIÓN
+El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AP, Fila n</t>
+  </si>
+  <si>
+    <t>Fecha de ingreso del Docente a la universidad. Formato dd/mm/aaaa</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>Error en la Columna FECHA DE INGRESO A LA UNIVERISAD:
+EL dato ingresado se encuentran en blanco o no tiene un formato correcto. Corrija la Columna AQ, Fila n</t>
+  </si>
+  <si>
+    <t>Descripción de la modalidad de Ingreso del Docente a la Universidad.</t>
+  </si>
+  <si>
+    <t>Proceso de Selección 2004</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Error en la Columna MODALIDAD DE INGRESO: 
+Debe de ingresar la descripción de la modalidad de Ingreso del Docente a la Universidad. Corrija la Columna AR, Fila n</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Error en la Columna ¿REALIZÓ INTERCAMBIO?:
+El código de ¿Realizó Intercambio? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AS, Fila n</t>
+  </si>
+  <si>
+    <t>Nombre en formato texto de la Universidad en que el Docente realizó su Intercambio, debe completarse solo si marcó a Realizó Movilidad Nacional (Valor 1)</t>
+  </si>
+  <si>
+    <t>Obligatorio solo si marcó SI para Realizó Intercambio</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Error en la Columna UNIVERSIDAD DONDE REALIZÓ INTERCAMBIO:
+Si ha ingresado que el Docente realizóIntercambio, ingrese el Nombre de la Universidad donde lo realizó, no puede dejar el registro en blanco. Corrija la Columna AT, Fila n</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Error en la Columna PAÍS DE PROCEDENCIA:
+El País de Procedencia ingresado se encuentran en blanco. Corrija la Columna AU, Fila n</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>Error en la Columna DEPARTAMENTO DE PROCEDENCIA
+El Departamento de Procedencia ingresado se encuentran en blanco. Corrija la Columna AV, Fila n</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>Error en la Columna PROVINCIA DE PROCEDENCIA:
+La Provincia de Procedencia ingresado se encuentran en blanco. Corrija la Columna AW, Fila n</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>Error en la Columna DISTRITO DE PROCEDENCIA:
+El Distrito de Procedencia ingresado se encuentran en blanco. Corrija la Columna AX, Fila n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo Electrónico institucional del Docente </t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>Error en la Columna CORREO ELECTRÓNICO INSTITUCIONAL:
+El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AY, Fila n</t>
+  </si>
+  <si>
+    <t>Dirección de domicilio del Docente en formato texto</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Error en la Columna DIRECCIÓN DEL Docente:
+El Valor ingresado se encuentran en blanco. Corrija la Columna AZ, Fila n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo Electrónico Personal del Docente </t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Error en la Columna CORREO ELECTRÓNICO PERSONAL:
+El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna BA, Fila n</t>
+  </si>
+  <si>
+    <t>Teléfono del Docente</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>c_depar_academico</t>
+  </si>
+  <si>
+    <t>c_desc_cargo</t>
+  </si>
+  <si>
+    <t>Indicador si el Docente sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el Docente se encuentra de Licencia. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el Docente cuenta con otro grado académico. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el Docente cuenta con título universitario. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
     <t>Indicador si el Docente es investigador. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
-  </si>
-  <si>
-    <t>Error en la Columna ¿ES INVESTIGADOR?:
-El código de ¿Es Investigador? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AI, Fila n</t>
   </si>
   <si>
     <t>Indicador si el Docente dicta cursos en Pregrado. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
-  </si>
-  <si>
-    <t>Error en la Columna ¿ES DOCENTE PREGRADO?:
-El código de ¿Es Docente Pregrado? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AJ, Fila n</t>
   </si>
   <si>
     <t>Indicador si el Docente dicta cursos en Postgrado. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
-  </si>
-  <si>
-    <t>Error en la Columna ¿ES DOCENTE DE POSTGRADO?:
-El código de ¿Es Docente Postgrado? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AK, Fila n</t>
   </si>
   <si>
     <t>Indicador si el Docente es Destacado. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
-  </si>
-  <si>
-    <t>Error en la Columna ¿ES DOCENTE DESTACADO?:
-El código de ¿Es Docente Destacado? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AL, Fila n</t>
-  </si>
-  <si>
-    <t>Horas Lectivas del Docente</t>
-  </si>
-  <si>
-    <t>Error en la Columna HORAS LECTIVAS:
-El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AM, Fila n</t>
-  </si>
-  <si>
-    <t>Horas No Lectivas del Docente</t>
-  </si>
-  <si>
-    <t>Error en la Columna HORAS NO LECTIVAS:
-El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AN, Fila n</t>
-  </si>
-  <si>
-    <t>Horas de Investigación del Docente</t>
-  </si>
-  <si>
-    <t>Error en la Columna HORAS DE INVESTIGACIÓN:
-El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AO, Fila n</t>
-  </si>
-  <si>
-    <t>Horas de Dedicación del Docente</t>
-  </si>
-  <si>
-    <t>Error en la Columna HORAS DE DEDICACIÓN
-El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AP, Fila n</t>
-  </si>
-  <si>
-    <t>Fecha de ingreso del Docente a la universidad. Formato dd/mm/aaaa</t>
-  </si>
-  <si>
-    <t>AQ</t>
-  </si>
-  <si>
-    <t>Error en la Columna FECHA DE INGRESO A LA UNIVERISAD:
-EL dato ingresado se encuentran en blanco o no tiene un formato correcto. Corrija la Columna AQ, Fila n</t>
-  </si>
-  <si>
-    <t>Descripción de la modalidad de Ingreso del Docente a la Universidad.</t>
-  </si>
-  <si>
-    <t>Proceso de Selección 2004</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Error en la Columna MODALIDAD DE INGRESO: 
-Debe de ingresar la descripción de la modalidad de Ingreso del Docente a la Universidad. Corrija la Columna AR, Fila n</t>
   </si>
   <si>
     <t>Indicador si el Docente realizó o no Intercambio. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
   </si>
   <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>Error en la Columna ¿REALIZÓ INTERCAMBIO?:
-El código de ¿Realizó Intercambio? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AS, Fila n</t>
-  </si>
-  <si>
-    <t>Nombre en formato texto de la Universidad en que el Docente realizó su Intercambio, debe completarse solo si marcó a Realizó Movilidad Nacional (Valor 1)</t>
-  </si>
-  <si>
-    <t>Obligatorio solo si marcó SI para Realizó Intercambio</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>Error en la Columna UNIVERSIDAD DONDE REALIZÓ INTERCAMBIO:
-Si ha ingresado que el Docente realizóIntercambio, ingrese el Nombre de la Universidad donde lo realizó, no puede dejar el registro en blanco. Corrija la Columna AT, Fila n</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>Error en la Columna PAÍS DE PROCEDENCIA:
-El País de Procedencia ingresado se encuentran en blanco. Corrija la Columna AU, Fila n</t>
-  </si>
-  <si>
-    <t>AV</t>
-  </si>
-  <si>
-    <t>Error en la Columna DEPARTAMENTO DE PROCEDENCIA
-El Departamento de Procedencia ingresado se encuentran en blanco. Corrija la Columna AV, Fila n</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>Error en la Columna PROVINCIA DE PROCEDENCIA:
-La Provincia de Procedencia ingresado se encuentran en blanco. Corrija la Columna AW, Fila n</t>
-  </si>
-  <si>
-    <t>AX</t>
-  </si>
-  <si>
-    <t>Error en la Columna DISTRITO DE PROCEDENCIA:
-El Distrito de Procedencia ingresado se encuentran en blanco. Corrija la Columna AX, Fila n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correo Electrónico institucional del Docente </t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>Error en la Columna CORREO ELECTRÓNICO INSTITUCIONAL:
-El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AY, Fila n</t>
-  </si>
-  <si>
-    <t>Dirección de domicilio del Docente en formato texto</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Error en la Columna DIRECCIÓN DEL Docente:
-El Valor ingresado se encuentran en blanco. Corrija la Columna AZ, Fila n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correo Electrónico Personal del Docente </t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>Error en la Columna CORREO ELECTRÓNICO PERSONAL:
-El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna BA, Fila n</t>
-  </si>
-  <si>
-    <t>Teléfono del Docente</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>c_depar_academico</t>
-  </si>
-  <si>
-    <t>c_desc_cargo</t>
+    <t>Nota: Se debe de llenar la Hoja1 del Excel con las siguientes instrucciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1277,6 +1280,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1376,7 +1386,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1466,6 +1476,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -1846,7 +1857,7 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
@@ -1891,7 +1902,7 @@
         <v>172</v>
       </c>
       <c r="R1" s="27" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="S1" t="s">
         <v>173</v>
@@ -2181,7 +2192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2208,6 +2221,11 @@
       <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>336</v>
+      </c>
+    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>36</v>
@@ -2566,7 +2584,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>221</v>
+        <v>327</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>54</v>
@@ -2584,7 +2602,7 @@
         <v>69</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -2595,7 +2613,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>85</v>
@@ -2613,7 +2631,7 @@
         <v>71</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2624,7 +2642,7 @@
         <v>118</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>50</v>
@@ -2642,7 +2660,7 @@
         <v>73</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="26" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2653,7 +2671,7 @@
         <v>137</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>50</v>
@@ -2671,7 +2689,7 @@
         <v>75</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="245.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2682,7 +2700,7 @@
         <v>138</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>50</v>
@@ -2691,7 +2709,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G23" s="19">
         <v>13</v>
@@ -2700,7 +2718,7 @@
         <v>78</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2711,10 +2729,10 @@
         <v>139</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>65</v>
@@ -2723,13 +2741,13 @@
         <v>68</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>81</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
@@ -2740,7 +2758,7 @@
         <v>140</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>46</v>
@@ -2752,7 +2770,7 @@
         <v>68</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>83</v>
@@ -2767,7 +2785,7 @@
         <v>141</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>50</v>
@@ -2776,7 +2794,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G26" s="17">
         <v>1</v>
@@ -2785,7 +2803,7 @@
         <v>84</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="121.5" x14ac:dyDescent="0.35">
@@ -2796,7 +2814,7 @@
         <v>142</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>50</v>
@@ -2805,7 +2823,7 @@
         <v>47</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G27" s="17">
         <v>4</v>
@@ -2814,7 +2832,7 @@
         <v>87</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2825,7 +2843,7 @@
         <v>143</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>50</v>
@@ -2837,13 +2855,13 @@
         <v>68</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>90</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2854,7 +2872,7 @@
         <v>144</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>50</v>
@@ -2866,13 +2884,13 @@
         <v>68</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>93</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2883,7 +2901,7 @@
         <v>145</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>50</v>
@@ -2892,7 +2910,7 @@
         <v>55</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G30" s="17">
         <v>1</v>
@@ -2901,7 +2919,7 @@
         <v>96</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -2912,10 +2930,10 @@
         <v>146</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>65</v>
@@ -2924,13 +2942,13 @@
         <v>68</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>99</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2941,7 +2959,7 @@
         <v>147</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>54</v>
@@ -2959,7 +2977,7 @@
         <v>102</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -2970,10 +2988,10 @@
         <v>148</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>65</v>
@@ -2982,13 +3000,13 @@
         <v>68</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>103</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2999,10 +3017,10 @@
         <v>149</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>65</v>
@@ -3011,13 +3029,13 @@
         <v>68</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>104</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3028,16 +3046,16 @@
         <v>150</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G35" s="17">
         <v>1</v>
@@ -3046,7 +3064,7 @@
         <v>106</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.35">
@@ -3057,10 +3075,10 @@
         <v>151</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>65</v>
@@ -3069,13 +3087,13 @@
         <v>68</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>110</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3086,7 +3104,7 @@
         <v>152</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>54</v>
@@ -3104,7 +3122,7 @@
         <v>111</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -3115,10 +3133,10 @@
         <v>153</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>65</v>
@@ -3127,13 +3145,13 @@
         <v>68</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>113</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.35">
@@ -3144,7 +3162,7 @@
         <v>154</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>50</v>
@@ -3153,7 +3171,7 @@
         <v>55</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G39" s="19">
         <v>1</v>
@@ -3162,7 +3180,7 @@
         <v>122</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3173,7 +3191,7 @@
         <v>155</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>50</v>
@@ -3182,7 +3200,7 @@
         <v>55</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G40" s="19">
         <v>1</v>
@@ -3191,7 +3209,7 @@
         <v>123</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3202,7 +3220,7 @@
         <v>156</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>50</v>
@@ -3211,7 +3229,7 @@
         <v>55</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G41" s="19">
         <v>2</v>
@@ -3220,7 +3238,7 @@
         <v>124</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3231,7 +3249,7 @@
         <v>157</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>54</v>
@@ -3249,7 +3267,7 @@
         <v>125</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3260,7 +3278,7 @@
         <v>158</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>54</v>
@@ -3278,7 +3296,7 @@
         <v>126</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3289,7 +3307,7 @@
         <v>159</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>54</v>
@@ -3307,7 +3325,7 @@
         <v>127</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3318,7 +3336,7 @@
         <v>160</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>54</v>
@@ -3336,7 +3354,7 @@
         <v>130</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -3347,7 +3365,7 @@
         <v>161</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>50</v>
@@ -3365,7 +3383,7 @@
         <v>131</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -3376,7 +3394,7 @@
         <v>162</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>50</v>
@@ -3394,7 +3412,7 @@
         <v>132</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -3405,7 +3423,7 @@
         <v>163</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>50</v>
@@ -3423,7 +3441,7 @@
         <v>133</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -3434,7 +3452,7 @@
         <v>164</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>50</v>
@@ -3452,7 +3470,7 @@
         <v>134</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -3463,7 +3481,7 @@
         <v>165</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>50</v>
@@ -3478,10 +3496,10 @@
         <v>38492</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -3492,7 +3510,7 @@
         <v>166</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>50</v>
@@ -3504,13 +3522,13 @@
         <v>68</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3521,7 +3539,7 @@
         <v>167</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>54</v>
@@ -3536,10 +3554,10 @@
         <v>1</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -3550,10 +3568,10 @@
         <v>168</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>65</v>
@@ -3565,10 +3583,10 @@
         <v>121</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -3594,10 +3612,10 @@
         <v>92</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -3623,10 +3641,10 @@
         <v>95</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -3652,10 +3670,10 @@
         <v>98</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -3681,10 +3699,10 @@
         <v>101</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -3695,7 +3713,7 @@
         <v>115</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>50</v>
@@ -3710,10 +3728,10 @@
         <v>129</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -3724,7 +3742,7 @@
         <v>169</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>50</v>
@@ -3739,10 +3757,10 @@
         <v>105</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -3753,7 +3771,7 @@
         <v>116</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>50</v>
@@ -3768,10 +3786,10 @@
         <v>109</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -3782,7 +3800,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>46</v>
@@ -3797,7 +3815,7 @@
         <v>945625285</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="I61" s="12"/>
     </row>
@@ -3822,7 +3840,7 @@
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I62" s="12"/>
     </row>
@@ -3834,6 +3852,6 @@
     <hyperlink ref="G58" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>